--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2761.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2761.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.164309675192951</v>
+        <v>1.801435112953186</v>
       </c>
       <c r="B1">
-        <v>2.424211126558054</v>
+        <v>1.980481386184692</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.194414854049683</v>
       </c>
       <c r="D1">
-        <v>2.369177751267261</v>
+        <v>3.309619188308716</v>
       </c>
       <c r="E1">
-        <v>1.224295556489876</v>
+        <v>2.045021533966064</v>
       </c>
     </row>
   </sheetData>
